--- a/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
+++ b/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t xml:space="preserve">LogDate</t>
   </si>
@@ -62,6 +62,17 @@
   </si>
   <si>
     <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sssssss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 项目例会记录
+**地点**：ss
+**参会**：ss
+**议题**：s
+**问题风险**：
+s</t>
   </si>
 </sst>
 </file>
@@ -176,6 +187,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
+++ b/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t xml:space="preserve">LogDate</t>
   </si>
@@ -73,6 +73,12 @@
 **议题**：s
 **问题风险**：
 s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ddddQQQffffffffffffddddvvvvvvvv2025/11/11 16:58:36</t>
   </si>
 </sst>
 </file>
@@ -222,6 +228,41 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
+++ b/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t xml:space="preserve">LogDate</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t xml:space="preserve">ddddQQQffffffffffffddddvvvvvvvv2025/11/11 16:58:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vvvv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333ddddQQQvvvvvv3332025/11/11 17:05:52</t>
   </si>
 </sst>
 </file>
@@ -263,6 +269,41 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
+++ b/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t xml:space="preserve">LogDate</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t xml:space="preserve">333ddddQQQvvvvvv3332025/11/11 17:05:52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">www111sss、ttt2025-11-11 17:19</t>
   </si>
 </sst>
 </file>
@@ -304,6 +310,41 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
+++ b/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
   <si>
     <t xml:space="preserve">LogDate</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t xml:space="preserve">www111sss、ttt2025-11-11 17:19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2111ttt2025-11-11 17:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ss111eee、ttt2025-11-11 17:27</t>
   </si>
 </sst>
 </file>
@@ -345,6 +357,76 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
+++ b/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
   <si>
     <t xml:space="preserve">LogDate</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t xml:space="preserve">ss111eee、ttt2025-11-11 17:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cccc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ddddd333eee2025-11-11 20:27xxxxxxxx</t>
   </si>
 </sst>
 </file>
@@ -427,6 +433,41 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
+++ b/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
   <si>
     <t xml:space="preserve">LogDate</t>
   </si>
@@ -23,12 +23,12 @@
     <t xml:space="preserve">ItemContent</t>
   </si>
   <si>
+    <t xml:space="preserve">CategoryId</t>
+  </si>
+  <si>
     <t xml:space="preserve">Status</t>
   </si>
   <si>
-    <t xml:space="preserve">CategoryId</t>
-  </si>
-  <si>
     <t xml:space="preserve">Progress</t>
   </si>
   <si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t xml:space="preserve">SortOrder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DailySummary</t>
   </si>
   <si>
     <t xml:space="preserve">2025-11-11</t>
@@ -58,9 +61,6 @@
 s</t>
   </si>
   <si>
-    <t xml:space="preserve">Todo</t>
-  </si>
-  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t xml:space="preserve">ddddQQQffffffffffffddddvvvvvvvv2025/11/11 16:58:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-12 09:49</t>
   </si>
   <si>
     <t xml:space="preserve">vvvv</t>
@@ -190,20 +193,23 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
         <v>13</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
       <c r="E2">
         <v>0</v>
       </c>
@@ -221,11 +227,14 @@
       </c>
       <c r="J2">
         <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -260,7 +269,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -272,16 +281,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -295,13 +304,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -330,13 +339,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -365,13 +374,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -400,13 +409,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -435,13 +444,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9">
         <v>0</v>

--- a/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
+++ b/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="2025-11-11" sheetId="1" r:id="rId3"/>
+    <sheet name="2025-11-12" sheetId="2" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
   <si>
     <t xml:space="preserve">LogDate</t>
   </si>
@@ -50,7 +51,7 @@
     <t xml:space="preserve">2025-11-11</t>
   </si>
   <si>
-    <t xml:space="preserve">s</t>
+    <t xml:space="preserve">sss</t>
   </si>
   <si>
     <t xml:space="preserve"># 项目例会记录
@@ -112,6 +113,25 @@
   </si>
   <si>
     <t xml:space="preserve">ddddd333eee2025-11-11 20:27xxxxxxxx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 项目例会记录
+**地点**：
+**参会**：
+**议题**：
+**问题风险**：
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 项目例会记录
+**地点**：w
+**参会**：w
+**议题**：d
+**问题风险**：
+</t>
   </si>
 </sst>
 </file>
@@ -480,4 +500,122 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
+++ b/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="33">
   <si>
     <t xml:space="preserve">LogDate</t>
   </si>
@@ -497,6 +497,286 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -615,6 +895,76 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
+++ b/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
@@ -15,37 +15,37 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="33">
   <si>
-    <t xml:space="preserve">LogDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ItemTitle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ItemContent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CategoryId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StartTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EndTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tags</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SortOrder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DailySummary</t>
+    <t xml:space="preserve">日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">标题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分类ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">进度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">开始时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">结束时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">标签</t>
+  </si>
+  <si>
+    <t xml:space="preserve">排序</t>
+  </si>
+  <si>
+    <t xml:space="preserve">当日总结</t>
   </si>
   <si>
     <t xml:space="preserve">2025-11-11</t>

--- a/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
+++ b/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="35">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -375,10 +375,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3">
         <v>0</v>
@@ -410,10 +410,10 @@
         <v>13</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>13</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
@@ -795,25 +795,25 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>12</v>
@@ -830,215 +830,915 @@
         <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="D31" s="3">
+        <v>0</v>
+      </c>
+      <c r="E31" s="3">
         <v>1</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="I31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0</v>
+      </c>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>0</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="s">
+      <c r="B35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="4">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="4">
-        <v>0</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="s">
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J36" s="4">
+        <v>0</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="s">
+      <c r="D37" s="4">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="4">
+        <v>0</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J38" s="4">
+        <v>0</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="4">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="s">
+      <c r="D40" s="4">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+      <c r="F40" s="4">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C41" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
-        <v>0</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4" t="s">
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>0</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="4">
+        <v>0</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>0</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J42" s="4">
+        <v>0</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>0</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J43" s="4">
+        <v>0</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A35:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
+++ b/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
@@ -68,6 +68,17 @@
     <t xml:space="preserve">2025年11月12日</t>
   </si>
   <si>
+    <t xml:space="preserve">ssd</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 项目例会记录
+**地点**：
+**参会**：
+**议题**：
+**问题风险**：
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">111</t>
   </si>
   <si>
@@ -77,17 +88,6 @@
 **议题**：
 **问题风险**：
 33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssd</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># 项目例会记录
-**地点**：
-**参会**：
-**议题**：
-**问题风险**：
-</t>
   </si>
 </sst>
 </file>
@@ -402,7 +402,7 @@
         <v>11</v>
       </c>
       <c r="J6" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -434,7 +434,7 @@
         <v>11</v>
       </c>
       <c r="J7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">

--- a/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
+++ b/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">2025年11月12日</t>
   </si>
   <si>
-    <t xml:space="preserve">ssd</t>
+    <t xml:space="preserve">111111</t>
   </si>
   <si>
     <t xml:space="preserve"># 项目例会记录
@@ -88,6 +88,9 @@
 **议题**：
 **问题风险**：
 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssd</t>
   </si>
 </sst>
 </file>
@@ -438,27 +441,59 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="B8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5"/>
+      <c r="B9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="C9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
+++ b/WorkLogApp.UI/bin/Debug/Data/worklog_202511.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="30">
   <si>
     <t xml:space="preserve">日期</t>
   </si>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">2025年11月12日</t>
   </si>
   <si>
-    <t xml:space="preserve">111111</t>
+    <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve"># 项目例会记录
@@ -79,6 +79,26 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># 项目例会记录
+**地点**：1
+**参会**：2
+**议题**：3
+**问题风险**：
+4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-12 12:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-11-12 16:47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssd</t>
+  </si>
+  <si>
     <t xml:space="preserve">111</t>
   </si>
   <si>
@@ -90,7 +110,13 @@
 33</t>
   </si>
   <si>
-    <t xml:space="preserve">ssd</t>
+    <t xml:space="preserve">111111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fffa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fffa；111111；111；ssd</t>
   </si>
 </sst>
 </file>
@@ -405,7 +431,7 @@
         <v>11</v>
       </c>
       <c r="J6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -428,16 +454,16 @@
         <v>0</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="J7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -445,7 +471,7 @@
         <v>17</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>19</v>
@@ -469,31 +495,127 @@
         <v>11</v>
       </c>
       <c r="J8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="5"/>
-      <c r="B9" s="11" t="s">
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5"/>
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="C12:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
